--- a/biology/Botanique/Chikusichloa/Chikusichloa.xlsx
+++ b/biology/Botanique/Chikusichloa/Chikusichloa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Chikusichloa est un genre de plantes monocotylédones de la famille des Poaceae, sous-famille des Oryzoideae,  originaire d'Extrême-Orient, qui comprend trois espèces.
-Ce sont des plantes herbacées vivaces, de 70 à 175 cm de haut, aux inflorescence en panicules ouvertes, dont les épillets n'ont pas de glumes (comme chez les espèces du genre Oryza), et sont constitués uniquement de fleurons fertiles[2].
-Le nom générique « Chikusichloa » est dérivé des racines japonaise chiku (bambou) et grecque chloa (herbe)[3].
+Ce sont des plantes herbacées vivaces, de 70 à 175 cm de haut, aux inflorescence en panicules ouvertes, dont les épillets n'ont pas de glumes (comme chez les espèces du genre Oryza), et sont constitués uniquement de fleurons fertiles.
+Le nom générique « Chikusichloa » est dérivé des racines japonaise chiku (bambou) et grecque chloa (herbe).
 </t>
         </is>
       </c>
@@ -514,9 +526,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (29 janvier 2017)[4] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (29 janvier 2017) :
 Chikusichloa aquatica Koidz. (1925)
 Chikusichloa brachyathera Ohwi (1942)
 Chikusichloa mutica Keng (1931)</t>
